--- a/cluster_3.xlsx
+++ b/cluster_3.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhsuh\OneDrive\Desktop\Filtrix\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -15429,8 +15424,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15493,14 +15488,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -15547,7 +15534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15579,10 +15566,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15614,7 +15600,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15790,27 +15775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J737"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15842,7 +15814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -15874,7 +15846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -15906,7 +15878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -15938,7 +15910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15970,7 +15942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -16002,7 +15974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -16034,7 +16006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -16066,7 +16038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -16098,7 +16070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -16130,7 +16102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -16162,7 +16134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -16194,7 +16166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -16226,7 +16198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -16258,7 +16230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -16290,7 +16262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -16322,7 +16294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -16354,7 +16326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -16386,7 +16358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -16418,7 +16390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -16450,7 +16422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -16482,7 +16454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -16514,7 +16486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -16546,7 +16518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -16578,7 +16550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -16610,7 +16582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -16642,7 +16614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -16674,7 +16646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -16706,7 +16678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -16738,7 +16710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -16770,7 +16742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -16802,7 +16774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -16834,7 +16806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -16866,7 +16838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -16898,7 +16870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -16930,7 +16902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -16962,7 +16934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -16994,7 +16966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -17026,7 +16998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -17058,7 +17030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -17090,7 +17062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -17122,7 +17094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -17154,7 +17126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -17186,7 +17158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -17218,7 +17190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -17250,7 +17222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -17282,7 +17254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -17314,7 +17286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -17346,7 +17318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -17378,7 +17350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -17410,7 +17382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -17442,7 +17414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -17474,7 +17446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -17506,7 +17478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -17538,7 +17510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -17570,7 +17542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -17602,7 +17574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -17634,7 +17606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -17666,7 +17638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -17698,7 +17670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -17730,7 +17702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -17762,7 +17734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -17794,7 +17766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -17826,7 +17798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -17858,7 +17830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -17890,7 +17862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -17922,7 +17894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -17954,7 +17926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -17986,7 +17958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -18018,7 +17990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -18050,7 +18022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -18082,7 +18054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -18114,7 +18086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -18146,7 +18118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -18178,7 +18150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -18210,7 +18182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -18242,7 +18214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -18274,7 +18246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -18306,7 +18278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -18338,7 +18310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -18370,7 +18342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -18402,7 +18374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -18434,7 +18406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -18466,7 +18438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -18498,7 +18470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -18530,7 +18502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -18562,7 +18534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -18594,7 +18566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -18626,7 +18598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -18658,7 +18630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -18690,7 +18662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -18722,7 +18694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -18754,7 +18726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -18786,7 +18758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -18818,7 +18790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -18850,7 +18822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -18882,7 +18854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -18914,7 +18886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -18946,7 +18918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -18978,7 +18950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -19010,7 +18982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -19042,7 +19014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -19074,7 +19046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>37</v>
       </c>
@@ -19106,7 +19078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -19138,7 +19110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -19170,7 +19142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -19202,7 +19174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -19234,7 +19206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -19266,7 +19238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -19298,7 +19270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -19330,7 +19302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>29</v>
       </c>
@@ -19362,7 +19334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -19394,7 +19366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>34</v>
       </c>
@@ -19426,7 +19398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -19458,7 +19430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>45</v>
       </c>
@@ -19490,7 +19462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -19522,7 +19494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -19554,7 +19526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -19586,7 +19558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -19618,7 +19590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -19650,7 +19622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -19682,7 +19654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -19714,7 +19686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -19746,7 +19718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>44</v>
       </c>
@@ -19778,7 +19750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -19810,7 +19782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -19842,7 +19814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -19874,7 +19846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -19906,7 +19878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -19938,7 +19910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -19970,7 +19942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -20002,7 +19974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>52</v>
       </c>
@@ -20034,7 +20006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>53</v>
       </c>
@@ -20066,7 +20038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>54</v>
       </c>
@@ -20098,7 +20070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>55</v>
       </c>
@@ -20130,7 +20102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>55</v>
       </c>
@@ -20162,7 +20134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -20194,7 +20166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>57</v>
       </c>
@@ -20226,7 +20198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>57</v>
       </c>
@@ -20258,7 +20230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>58</v>
       </c>
@@ -20290,7 +20262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -20322,7 +20294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>60</v>
       </c>
@@ -20354,7 +20326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -20386,7 +20358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>60</v>
       </c>
@@ -20418,7 +20390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -20450,7 +20422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -20482,7 +20454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>62</v>
       </c>
@@ -20514,7 +20486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -20546,7 +20518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -20578,7 +20550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -20610,7 +20582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>60</v>
       </c>
@@ -20642,7 +20614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>63</v>
       </c>
@@ -20674,7 +20646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>64</v>
       </c>
@@ -20706,7 +20678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>65</v>
       </c>
@@ -20738,7 +20710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -20770,7 +20742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -20802,7 +20774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>66</v>
       </c>
@@ -20834,7 +20806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>62</v>
       </c>
@@ -20866,7 +20838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>67</v>
       </c>
@@ -20898,7 +20870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>67</v>
       </c>
@@ -20930,7 +20902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -20962,7 +20934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -20994,7 +20966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>68</v>
       </c>
@@ -21026,7 +20998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>69</v>
       </c>
@@ -21058,7 +21030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -21090,7 +21062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>70</v>
       </c>
@@ -21122,7 +21094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -21154,7 +21126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -21186,7 +21158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>70</v>
       </c>
@@ -21218,7 +21190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -21250,7 +21222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>71</v>
       </c>
@@ -21282,7 +21254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -21314,7 +21286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>70</v>
       </c>
@@ -21346,7 +21318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -21378,7 +21350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>18</v>
       </c>
@@ -21410,7 +21382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -21442,7 +21414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>72</v>
       </c>
@@ -21474,7 +21446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>73</v>
       </c>
@@ -21506,7 +21478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -21538,7 +21510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>70</v>
       </c>
@@ -21570,7 +21542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>57</v>
       </c>
@@ -21602,7 +21574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>74</v>
       </c>
@@ -21634,7 +21606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>26</v>
       </c>
@@ -21666,7 +21638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>70</v>
       </c>
@@ -21698,7 +21670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -21730,7 +21702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>57</v>
       </c>
@@ -21762,7 +21734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>75</v>
       </c>
@@ -21794,7 +21766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -21826,7 +21798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>67</v>
       </c>
@@ -21858,7 +21830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -21890,7 +21862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>57</v>
       </c>
@@ -21922,7 +21894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>76</v>
       </c>
@@ -21954,7 +21926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>70</v>
       </c>
@@ -21986,7 +21958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>57</v>
       </c>
@@ -22018,7 +21990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>77</v>
       </c>
@@ -22050,7 +22022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>73</v>
       </c>
@@ -22082,7 +22054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>76</v>
       </c>
@@ -22114,7 +22086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>78</v>
       </c>
@@ -22146,7 +22118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>67</v>
       </c>
@@ -22178,7 +22150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>62</v>
       </c>
@@ -22210,7 +22182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>79</v>
       </c>
@@ -22242,7 +22214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>70</v>
       </c>
@@ -22274,7 +22246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>34</v>
       </c>
@@ -22306,7 +22278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -22338,7 +22310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -22370,7 +22342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -22402,7 +22374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>18</v>
       </c>
@@ -22434,7 +22406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>57</v>
       </c>
@@ -22466,7 +22438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>73</v>
       </c>
@@ -22498,7 +22470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>80</v>
       </c>
@@ -22530,7 +22502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -22562,7 +22534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>57</v>
       </c>
@@ -22594,7 +22566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>81</v>
       </c>
@@ -22626,7 +22598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>57</v>
       </c>
@@ -22658,7 +22630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>81</v>
       </c>
@@ -22690,7 +22662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>82</v>
       </c>
@@ -22722,7 +22694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -22754,7 +22726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>83</v>
       </c>
@@ -22786,7 +22758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>84</v>
       </c>
@@ -22818,7 +22790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>73</v>
       </c>
@@ -22850,7 +22822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>84</v>
       </c>
@@ -22882,7 +22854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -22914,7 +22886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>85</v>
       </c>
@@ -22946,7 +22918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -22978,7 +22950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>82</v>
       </c>
@@ -23010,7 +22982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -23042,7 +23014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>67</v>
       </c>
@@ -23074,7 +23046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -23106,7 +23078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>82</v>
       </c>
@@ -23138,7 +23110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -23170,7 +23142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>70</v>
       </c>
@@ -23202,7 +23174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>60</v>
       </c>
@@ -23234,7 +23206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -23266,7 +23238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>62</v>
       </c>
@@ -23298,7 +23270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>70</v>
       </c>
@@ -23330,7 +23302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>26</v>
       </c>
@@ -23362,7 +23334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>67</v>
       </c>
@@ -23394,7 +23366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>82</v>
       </c>
@@ -23426,7 +23398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -23458,7 +23430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>82</v>
       </c>
@@ -23490,7 +23462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -23522,7 +23494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -23554,7 +23526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -23586,7 +23558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>82</v>
       </c>
@@ -23618,7 +23590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>34</v>
       </c>
@@ -23650,7 +23622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
         <v>86</v>
       </c>
@@ -23682,7 +23654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
         <v>86</v>
       </c>
@@ -23714,7 +23686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
         <v>73</v>
       </c>
@@ -23746,7 +23718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
         <v>86</v>
       </c>
@@ -23778,7 +23750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>18</v>
       </c>
@@ -23810,7 +23782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>82</v>
       </c>
@@ -23842,7 +23814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
         <v>84</v>
       </c>
@@ -23874,7 +23846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10">
       <c r="A253" t="s">
         <v>26</v>
       </c>
@@ -23906,7 +23878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10">
       <c r="A254" t="s">
         <v>86</v>
       </c>
@@ -23938,7 +23910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>18</v>
       </c>
@@ -23970,7 +23942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>86</v>
       </c>
@@ -24002,7 +23974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>86</v>
       </c>
@@ -24034,7 +24006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -24066,7 +24038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>82</v>
       </c>
@@ -24098,7 +24070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>70</v>
       </c>
@@ -24130,7 +24102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>87</v>
       </c>
@@ -24162,7 +24134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>73</v>
       </c>
@@ -24194,7 +24166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -24226,7 +24198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>82</v>
       </c>
@@ -24258,7 +24230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>26</v>
       </c>
@@ -24290,7 +24262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>84</v>
       </c>
@@ -24322,7 +24294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>86</v>
       </c>
@@ -24354,7 +24326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>82</v>
       </c>
@@ -24386,7 +24358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>82</v>
       </c>
@@ -24418,7 +24390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>86</v>
       </c>
@@ -24450,7 +24422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>86</v>
       </c>
@@ -24482,7 +24454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>82</v>
       </c>
@@ -24514,7 +24486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -24546,7 +24518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -24578,7 +24550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>22</v>
       </c>
@@ -24610,7 +24582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>88</v>
       </c>
@@ -24642,7 +24614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -24674,7 +24646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>86</v>
       </c>
@@ -24706,7 +24678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>86</v>
       </c>
@@ -24738,7 +24710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>82</v>
       </c>
@@ -24770,7 +24742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>86</v>
       </c>
@@ -24802,7 +24774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>18</v>
       </c>
@@ -24834,7 +24806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>82</v>
       </c>
@@ -24866,7 +24838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -24898,7 +24870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>86</v>
       </c>
@@ -24930,7 +24902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>85</v>
       </c>
@@ -24962,7 +24934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10">
       <c r="A287" t="s">
         <v>26</v>
       </c>
@@ -24994,7 +24966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10">
       <c r="A288" t="s">
         <v>86</v>
       </c>
@@ -25026,7 +24998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -25058,7 +25030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10">
       <c r="A290" t="s">
         <v>86</v>
       </c>
@@ -25090,7 +25062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -25122,7 +25094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10">
       <c r="A292" t="s">
         <v>86</v>
       </c>
@@ -25154,7 +25126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10">
       <c r="A293" t="s">
         <v>82</v>
       </c>
@@ -25186,7 +25158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -25218,7 +25190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>62</v>
       </c>
@@ -25250,7 +25222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10">
       <c r="A296" t="s">
         <v>57</v>
       </c>
@@ -25282,7 +25254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10">
       <c r="A297" t="s">
         <v>89</v>
       </c>
@@ -25314,7 +25286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10">
       <c r="A298" t="s">
         <v>70</v>
       </c>
@@ -25346,7 +25318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10">
       <c r="A299" t="s">
         <v>84</v>
       </c>
@@ -25378,7 +25350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10">
       <c r="A300" t="s">
         <v>80</v>
       </c>
@@ -25410,7 +25382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -25442,7 +25414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10">
       <c r="A302" t="s">
         <v>89</v>
       </c>
@@ -25474,7 +25446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10">
       <c r="A303" t="s">
         <v>81</v>
       </c>
@@ -25506,7 +25478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10">
       <c r="A304" t="s">
         <v>70</v>
       </c>
@@ -25538,7 +25510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10">
       <c r="A305" t="s">
         <v>86</v>
       </c>
@@ -25570,7 +25542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10">
       <c r="A306" t="s">
         <v>26</v>
       </c>
@@ -25602,7 +25574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10">
       <c r="A307" t="s">
         <v>86</v>
       </c>
@@ -25634,7 +25606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10">
       <c r="A308" t="s">
         <v>70</v>
       </c>
@@ -25666,7 +25638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10">
       <c r="A309" t="s">
         <v>84</v>
       </c>
@@ -25698,7 +25670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10">
       <c r="A310" t="s">
         <v>67</v>
       </c>
@@ -25730,7 +25702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10">
       <c r="A311" t="s">
         <v>34</v>
       </c>
@@ -25762,7 +25734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10">
       <c r="A312" t="s">
         <v>43</v>
       </c>
@@ -25794,7 +25766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10">
       <c r="A313" t="s">
         <v>86</v>
       </c>
@@ -25826,7 +25798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10">
       <c r="A314" t="s">
         <v>18</v>
       </c>
@@ -25858,7 +25830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10">
       <c r="A315" t="s">
         <v>10</v>
       </c>
@@ -25890,7 +25862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10">
       <c r="A316" t="s">
         <v>70</v>
       </c>
@@ -25922,7 +25894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10">
       <c r="A317" t="s">
         <v>70</v>
       </c>
@@ -25954,7 +25926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10">
       <c r="A318" t="s">
         <v>84</v>
       </c>
@@ -25986,7 +25958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10">
       <c r="A319" t="s">
         <v>70</v>
       </c>
@@ -26018,7 +25990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10">
       <c r="A320" t="s">
         <v>89</v>
       </c>
@@ -26050,7 +26022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10">
       <c r="A321" t="s">
         <v>70</v>
       </c>
@@ -26082,7 +26054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10">
       <c r="A322" t="s">
         <v>91</v>
       </c>
@@ -26114,7 +26086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10">
       <c r="A323" t="s">
         <v>80</v>
       </c>
@@ -26146,7 +26118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10">
       <c r="A324" t="s">
         <v>86</v>
       </c>
@@ -26178,7 +26150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -26210,7 +26182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10">
       <c r="A326" t="s">
         <v>86</v>
       </c>
@@ -26242,7 +26214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10">
       <c r="A327" t="s">
         <v>86</v>
       </c>
@@ -26274,7 +26246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10">
       <c r="A328" t="s">
         <v>26</v>
       </c>
@@ -26306,7 +26278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -26338,7 +26310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -26370,7 +26342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10">
       <c r="A331" t="s">
         <v>60</v>
       </c>
@@ -26402,7 +26374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10">
       <c r="A332" t="s">
         <v>84</v>
       </c>
@@ -26434,7 +26406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10">
       <c r="A333" t="s">
         <v>84</v>
       </c>
@@ -26466,7 +26438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10">
       <c r="A334" t="s">
         <v>90</v>
       </c>
@@ -26498,7 +26470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10">
       <c r="A335" t="s">
         <v>60</v>
       </c>
@@ -26530,7 +26502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10">
       <c r="A336" t="s">
         <v>60</v>
       </c>
@@ -26562,7 +26534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10">
       <c r="A337" t="s">
         <v>82</v>
       </c>
@@ -26594,7 +26566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10">
       <c r="A338" t="s">
         <v>86</v>
       </c>
@@ -26626,7 +26598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10">
       <c r="A339" t="s">
         <v>86</v>
       </c>
@@ -26658,7 +26630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -26690,7 +26662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10">
       <c r="A341" t="s">
         <v>82</v>
       </c>
@@ -26722,7 +26694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10">
       <c r="A342" t="s">
         <v>80</v>
       </c>
@@ -26754,7 +26726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10">
       <c r="A343" t="s">
         <v>86</v>
       </c>
@@ -26786,7 +26758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10">
       <c r="A344" t="s">
         <v>18</v>
       </c>
@@ -26818,7 +26790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10">
       <c r="A345" t="s">
         <v>92</v>
       </c>
@@ -26850,7 +26822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10">
       <c r="A346" t="s">
         <v>84</v>
       </c>
@@ -26882,7 +26854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10">
       <c r="A347" t="s">
         <v>81</v>
       </c>
@@ -26914,7 +26886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10">
       <c r="A348" t="s">
         <v>81</v>
       </c>
@@ -26946,7 +26918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10">
       <c r="A349" t="s">
         <v>84</v>
       </c>
@@ -26978,7 +26950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>84</v>
       </c>
@@ -27010,7 +26982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10">
       <c r="A351" t="s">
         <v>84</v>
       </c>
@@ -27042,7 +27014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10">
       <c r="A352" t="s">
         <v>26</v>
       </c>
@@ -27074,7 +27046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10">
       <c r="A353" t="s">
         <v>93</v>
       </c>
@@ -27106,7 +27078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10">
       <c r="A354" t="s">
         <v>34</v>
       </c>
@@ -27138,7 +27110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10">
       <c r="A355" t="s">
         <v>82</v>
       </c>
@@ -27170,7 +27142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10">
       <c r="A356" t="s">
         <v>86</v>
       </c>
@@ -27202,7 +27174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10">
       <c r="A357" t="s">
         <v>82</v>
       </c>
@@ -27234,7 +27206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10">
       <c r="A358" t="s">
         <v>86</v>
       </c>
@@ -27266,7 +27238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10">
       <c r="A359" t="s">
         <v>82</v>
       </c>
@@ -27298,7 +27270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10">
       <c r="A360" t="s">
         <v>82</v>
       </c>
@@ -27330,7 +27302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10">
       <c r="A361" t="s">
         <v>18</v>
       </c>
@@ -27362,7 +27334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10">
       <c r="A362" t="s">
         <v>70</v>
       </c>
@@ -27394,7 +27366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10">
       <c r="A363" t="s">
         <v>26</v>
       </c>
@@ -27426,7 +27398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10">
       <c r="A364" t="s">
         <v>86</v>
       </c>
@@ -27458,7 +27430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -27490,7 +27462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10">
       <c r="A366" t="s">
         <v>86</v>
       </c>
@@ -27522,7 +27494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10">
       <c r="A367" t="s">
         <v>86</v>
       </c>
@@ -27554,7 +27526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10">
       <c r="A368" t="s">
         <v>82</v>
       </c>
@@ -27586,7 +27558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10">
       <c r="A369" t="s">
         <v>18</v>
       </c>
@@ -27618,7 +27590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10">
       <c r="A370" t="s">
         <v>94</v>
       </c>
@@ -27650,7 +27622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10">
       <c r="A371" t="s">
         <v>26</v>
       </c>
@@ -27682,7 +27654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10">
       <c r="A372" t="s">
         <v>86</v>
       </c>
@@ -27714,7 +27686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10">
       <c r="A373" t="s">
         <v>86</v>
       </c>
@@ -27746,7 +27718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10">
       <c r="A374" t="s">
         <v>82</v>
       </c>
@@ -27778,7 +27750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -27810,7 +27782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10">
       <c r="A376" t="s">
         <v>10</v>
       </c>
@@ -27842,7 +27814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -27874,7 +27846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10">
       <c r="A378" t="s">
         <v>85</v>
       </c>
@@ -27906,7 +27878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -27938,7 +27910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10">
       <c r="A380" t="s">
         <v>26</v>
       </c>
@@ -27970,7 +27942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10">
       <c r="A381" t="s">
         <v>80</v>
       </c>
@@ -28002,7 +27974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10">
       <c r="A382" t="s">
         <v>57</v>
       </c>
@@ -28034,7 +28006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10">
       <c r="A383" t="s">
         <v>86</v>
       </c>
@@ -28066,7 +28038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10">
       <c r="A384" t="s">
         <v>82</v>
       </c>
@@ -28098,7 +28070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10">
       <c r="A385" t="s">
         <v>86</v>
       </c>
@@ -28130,7 +28102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10">
       <c r="A386" t="s">
         <v>11</v>
       </c>
@@ -28162,7 +28134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10">
       <c r="A387" t="s">
         <v>82</v>
       </c>
@@ -28194,7 +28166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10">
       <c r="A388" t="s">
         <v>82</v>
       </c>
@@ -28226,7 +28198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10">
       <c r="A389" t="s">
         <v>70</v>
       </c>
@@ -28258,7 +28230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10">
       <c r="A390" t="s">
         <v>95</v>
       </c>
@@ -28290,7 +28262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10">
       <c r="A391" t="s">
         <v>96</v>
       </c>
@@ -28322,7 +28294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10">
       <c r="A392" t="s">
         <v>97</v>
       </c>
@@ -28354,7 +28326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10">
       <c r="A393" t="s">
         <v>80</v>
       </c>
@@ -28386,7 +28358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10">
       <c r="A394" t="s">
         <v>18</v>
       </c>
@@ -28418,7 +28390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10">
       <c r="A395" t="s">
         <v>26</v>
       </c>
@@ -28450,7 +28422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10">
       <c r="A396" t="s">
         <v>98</v>
       </c>
@@ -28482,7 +28454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10">
       <c r="A397" t="s">
         <v>57</v>
       </c>
@@ -28514,7 +28486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10">
       <c r="A398" t="s">
         <v>86</v>
       </c>
@@ -28546,7 +28518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10">
       <c r="A399" t="s">
         <v>18</v>
       </c>
@@ -28578,7 +28550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10">
       <c r="A400" t="s">
         <v>82</v>
       </c>
@@ -28610,7 +28582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10">
       <c r="A401" t="s">
         <v>18</v>
       </c>
@@ -28642,7 +28614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10">
       <c r="A402" t="s">
         <v>99</v>
       </c>
@@ -28674,7 +28646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10">
       <c r="A403" t="s">
         <v>11</v>
       </c>
@@ -28706,7 +28678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10">
       <c r="A404" t="s">
         <v>26</v>
       </c>
@@ -28738,7 +28710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10">
       <c r="A405" t="s">
         <v>80</v>
       </c>
@@ -28770,7 +28742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10">
       <c r="A406" t="s">
         <v>80</v>
       </c>
@@ -28802,7 +28774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10">
       <c r="A407" t="s">
         <v>100</v>
       </c>
@@ -28834,7 +28806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10">
       <c r="A408" t="s">
         <v>73</v>
       </c>
@@ -28866,7 +28838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10">
       <c r="A409" t="s">
         <v>101</v>
       </c>
@@ -28898,7 +28870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10">
       <c r="A410" t="s">
         <v>102</v>
       </c>
@@ -28930,7 +28902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10">
       <c r="A411" t="s">
         <v>80</v>
       </c>
@@ -28962,7 +28934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10">
       <c r="A412" t="s">
         <v>103</v>
       </c>
@@ -28994,7 +28966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10">
       <c r="A413" t="s">
         <v>103</v>
       </c>
@@ -29026,7 +28998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10">
       <c r="A414" t="s">
         <v>103</v>
       </c>
@@ -29058,7 +29030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10">
       <c r="A415" t="s">
         <v>104</v>
       </c>
@@ -29090,7 +29062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10">
       <c r="A416" t="s">
         <v>34</v>
       </c>
@@ -29122,7 +29094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10">
       <c r="A417" t="s">
         <v>103</v>
       </c>
@@ -29154,7 +29126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10">
       <c r="A418" t="s">
         <v>103</v>
       </c>
@@ -29186,7 +29158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10">
       <c r="A419" t="s">
         <v>103</v>
       </c>
@@ -29218,7 +29190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10">
       <c r="A420" t="s">
         <v>103</v>
       </c>
@@ -29250,7 +29222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10">
       <c r="A421" t="s">
         <v>104</v>
       </c>
@@ -29282,7 +29254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10">
       <c r="A422" t="s">
         <v>103</v>
       </c>
@@ -29314,7 +29286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10">
       <c r="A423" t="s">
         <v>103</v>
       </c>
@@ -29346,7 +29318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10">
       <c r="A424" t="s">
         <v>103</v>
       </c>
@@ -29378,7 +29350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10">
       <c r="A425" t="s">
         <v>103</v>
       </c>
@@ -29410,7 +29382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10">
       <c r="A426" t="s">
         <v>103</v>
       </c>
@@ -29442,7 +29414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10">
       <c r="A427" t="s">
         <v>104</v>
       </c>
@@ -29474,7 +29446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10">
       <c r="A428" t="s">
         <v>103</v>
       </c>
@@ -29506,7 +29478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10">
       <c r="A429" t="s">
         <v>103</v>
       </c>
@@ -29538,7 +29510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10">
       <c r="A430" t="s">
         <v>26</v>
       </c>
@@ -29570,7 +29542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10">
       <c r="A431" t="s">
         <v>103</v>
       </c>
@@ -29602,7 +29574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10">
       <c r="A432" t="s">
         <v>103</v>
       </c>
@@ -29634,7 +29606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10">
       <c r="A433" t="s">
         <v>103</v>
       </c>
@@ -29666,7 +29638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10">
       <c r="A434" t="s">
         <v>103</v>
       </c>
@@ -29698,7 +29670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10">
       <c r="A435" t="s">
         <v>103</v>
       </c>
@@ -29730,7 +29702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10">
       <c r="A436" t="s">
         <v>103</v>
       </c>
@@ -29762,7 +29734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10">
       <c r="A437" t="s">
         <v>103</v>
       </c>
@@ -29794,7 +29766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10">
       <c r="A438" t="s">
         <v>104</v>
       </c>
@@ -29826,7 +29798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10">
       <c r="A439" t="s">
         <v>103</v>
       </c>
@@ -29858,7 +29830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10">
       <c r="A440" t="s">
         <v>103</v>
       </c>
@@ -29890,7 +29862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -29922,7 +29894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10">
       <c r="A442" t="s">
         <v>103</v>
       </c>
@@ -29954,7 +29926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10">
       <c r="A443" t="s">
         <v>103</v>
       </c>
@@ -29986,7 +29958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10">
       <c r="A444" t="s">
         <v>103</v>
       </c>
@@ -30018,7 +29990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10">
       <c r="A445" t="s">
         <v>104</v>
       </c>
@@ -30050,7 +30022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10">
       <c r="A446" t="s">
         <v>103</v>
       </c>
@@ -30082,7 +30054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10">
       <c r="A447" t="s">
         <v>103</v>
       </c>
@@ -30114,7 +30086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10">
       <c r="A448" t="s">
         <v>103</v>
       </c>
@@ -30146,7 +30118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10">
       <c r="A449" t="s">
         <v>104</v>
       </c>
@@ -30178,7 +30150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10">
       <c r="A450" t="s">
         <v>103</v>
       </c>
@@ -30210,7 +30182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10">
       <c r="A451" t="s">
         <v>103</v>
       </c>
@@ -30242,7 +30214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10">
       <c r="A452" t="s">
         <v>103</v>
       </c>
@@ -30274,7 +30246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10">
       <c r="A453" t="s">
         <v>103</v>
       </c>
@@ -30306,7 +30278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10">
       <c r="A454" t="s">
         <v>103</v>
       </c>
@@ -30338,7 +30310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10">
       <c r="A455" t="s">
         <v>104</v>
       </c>
@@ -30370,7 +30342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10">
       <c r="A456" t="s">
         <v>103</v>
       </c>
@@ -30402,7 +30374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10">
       <c r="A457" t="s">
         <v>104</v>
       </c>
@@ -30434,7 +30406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10">
       <c r="A458" t="s">
         <v>103</v>
       </c>
@@ -30466,7 +30438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10">
       <c r="A459" t="s">
         <v>103</v>
       </c>
@@ -30498,7 +30470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10">
       <c r="A460" t="s">
         <v>103</v>
       </c>
@@ -30530,7 +30502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10">
       <c r="A461" t="s">
         <v>103</v>
       </c>
@@ -30562,7 +30534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10">
       <c r="A462" t="s">
         <v>104</v>
       </c>
@@ -30594,7 +30566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10">
       <c r="A463" t="s">
         <v>104</v>
       </c>
@@ -30626,7 +30598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10">
       <c r="A464" t="s">
         <v>103</v>
       </c>
@@ -30658,7 +30630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10">
       <c r="A465" t="s">
         <v>103</v>
       </c>
@@ -30690,7 +30662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10">
       <c r="A466" t="s">
         <v>104</v>
       </c>
@@ -30722,7 +30694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10">
       <c r="A467" t="s">
         <v>103</v>
       </c>
@@ -30754,7 +30726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10">
       <c r="A468" t="s">
         <v>103</v>
       </c>
@@ -30786,7 +30758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10">
       <c r="A469" t="s">
         <v>103</v>
       </c>
@@ -30818,7 +30790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10">
       <c r="A470" t="s">
         <v>103</v>
       </c>
@@ -30850,7 +30822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10">
       <c r="A471" t="s">
         <v>103</v>
       </c>
@@ -30882,7 +30854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10">
       <c r="A472" t="s">
         <v>103</v>
       </c>
@@ -30914,7 +30886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10">
       <c r="A473" t="s">
         <v>103</v>
       </c>
@@ -30946,7 +30918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10">
       <c r="A474" t="s">
         <v>104</v>
       </c>
@@ -30978,7 +30950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10">
       <c r="A475" t="s">
         <v>103</v>
       </c>
@@ -31010,7 +30982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10">
       <c r="A476" t="s">
         <v>103</v>
       </c>
@@ -31042,7 +31014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10">
       <c r="A477" t="s">
         <v>104</v>
       </c>
@@ -31074,7 +31046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10">
       <c r="A478" t="s">
         <v>103</v>
       </c>
@@ -31106,7 +31078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10">
       <c r="A479" t="s">
         <v>103</v>
       </c>
@@ -31138,7 +31110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10">
       <c r="A480" t="s">
         <v>104</v>
       </c>
@@ -31170,7 +31142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10">
       <c r="A481" t="s">
         <v>103</v>
       </c>
@@ -31202,7 +31174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10">
       <c r="A482" t="s">
         <v>104</v>
       </c>
@@ -31234,7 +31206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10">
       <c r="A483" t="s">
         <v>103</v>
       </c>
@@ -31266,7 +31238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10">
       <c r="A484" t="s">
         <v>104</v>
       </c>
@@ -31298,7 +31270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10">
       <c r="A485" t="s">
         <v>104</v>
       </c>
@@ -31330,7 +31302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10">
       <c r="A486" t="s">
         <v>103</v>
       </c>
@@ -31362,7 +31334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10">
       <c r="A487" t="s">
         <v>103</v>
       </c>
@@ -31394,7 +31366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10">
       <c r="A488" t="s">
         <v>103</v>
       </c>
@@ -31426,7 +31398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10">
       <c r="A489" t="s">
         <v>104</v>
       </c>
@@ -31458,7 +31430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10">
       <c r="A490" t="s">
         <v>86</v>
       </c>
@@ -31490,7 +31462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10">
       <c r="A491" t="s">
         <v>98</v>
       </c>
@@ -31522,7 +31494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10">
       <c r="A492" t="s">
         <v>103</v>
       </c>
@@ -31554,7 +31526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10">
       <c r="A493" t="s">
         <v>103</v>
       </c>
@@ -31586,7 +31558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10">
       <c r="A494" t="s">
         <v>82</v>
       </c>
@@ -31618,7 +31590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10">
       <c r="A495" t="s">
         <v>86</v>
       </c>
@@ -31650,7 +31622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10">
       <c r="A496" t="s">
         <v>103</v>
       </c>
@@ -31682,7 +31654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10">
       <c r="A497" t="s">
         <v>82</v>
       </c>
@@ -31714,7 +31686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10">
       <c r="A498" t="s">
         <v>103</v>
       </c>
@@ -31746,7 +31718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10">
       <c r="A499" t="s">
         <v>82</v>
       </c>
@@ -31778,7 +31750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10">
       <c r="A500" t="s">
         <v>104</v>
       </c>
@@ -31810,7 +31782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10">
       <c r="A501" t="s">
         <v>22</v>
       </c>
@@ -31842,7 +31814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10">
       <c r="A502" t="s">
         <v>103</v>
       </c>
@@ -31874,7 +31846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10">
       <c r="A503" t="s">
         <v>103</v>
       </c>
@@ -31906,7 +31878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10">
       <c r="A504" t="s">
         <v>103</v>
       </c>
@@ -31938,7 +31910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10">
       <c r="A505" t="s">
         <v>103</v>
       </c>
@@ -31970,7 +31942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10">
       <c r="A506" t="s">
         <v>103</v>
       </c>
@@ -32002,7 +31974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10">
       <c r="A507" t="s">
         <v>105</v>
       </c>
@@ -32034,7 +32006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10">
       <c r="A508" t="s">
         <v>102</v>
       </c>
@@ -32066,7 +32038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10">
       <c r="A509" t="s">
         <v>106</v>
       </c>
@@ -32098,7 +32070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10">
       <c r="A510" t="s">
         <v>105</v>
       </c>
@@ -32130,7 +32102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10">
       <c r="A511" t="s">
         <v>105</v>
       </c>
@@ -32162,7 +32134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10">
       <c r="A512" t="s">
         <v>106</v>
       </c>
@@ -32194,7 +32166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10">
       <c r="A513" t="s">
         <v>105</v>
       </c>
@@ -32226,7 +32198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10">
       <c r="A514" t="s">
         <v>105</v>
       </c>
@@ -32258,7 +32230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10">
       <c r="A515" t="s">
         <v>105</v>
       </c>
@@ -32290,7 +32262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10">
       <c r="A516" t="s">
         <v>105</v>
       </c>
@@ -32322,7 +32294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10">
       <c r="A517" t="s">
         <v>106</v>
       </c>
@@ -32354,7 +32326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10">
       <c r="A518" t="s">
         <v>105</v>
       </c>
@@ -32386,7 +32358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10">
       <c r="A519" t="s">
         <v>105</v>
       </c>
@@ -32418,7 +32390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10">
       <c r="A520" t="s">
         <v>105</v>
       </c>
@@ -32450,7 +32422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10">
       <c r="A521" t="s">
         <v>105</v>
       </c>
@@ -32482,7 +32454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10">
       <c r="A522" t="s">
         <v>105</v>
       </c>
@@ -32514,7 +32486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10">
       <c r="A523" t="s">
         <v>105</v>
       </c>
@@ -32546,7 +32518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10">
       <c r="A524" t="s">
         <v>106</v>
       </c>
@@ -32578,7 +32550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10">
       <c r="A525" t="s">
         <v>106</v>
       </c>
@@ -32610,7 +32582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10">
       <c r="A526" t="s">
         <v>106</v>
       </c>
@@ -32642,7 +32614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10">
       <c r="A527" t="s">
         <v>105</v>
       </c>
@@ -32674,7 +32646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10">
       <c r="A528" t="s">
         <v>105</v>
       </c>
@@ -32706,7 +32678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10">
       <c r="A529" t="s">
         <v>105</v>
       </c>
@@ -32738,7 +32710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10">
       <c r="A530" t="s">
         <v>105</v>
       </c>
@@ -32770,7 +32742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10">
       <c r="A531" t="s">
         <v>81</v>
       </c>
@@ -32802,7 +32774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10">
       <c r="A532" t="s">
         <v>57</v>
       </c>
@@ -32834,7 +32806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10">
       <c r="A533" t="s">
         <v>81</v>
       </c>
@@ -32866,7 +32838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10">
       <c r="A534" t="s">
         <v>81</v>
       </c>
@@ -32898,7 +32870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10">
       <c r="A535" t="s">
         <v>105</v>
       </c>
@@ -32930,7 +32902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10">
       <c r="A536" t="s">
         <v>105</v>
       </c>
@@ -32962,7 +32934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10">
       <c r="A537" t="s">
         <v>81</v>
       </c>
@@ -32994,7 +32966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10">
       <c r="A538" t="s">
         <v>84</v>
       </c>
@@ -33026,7 +32998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10">
       <c r="A539" t="s">
         <v>105</v>
       </c>
@@ -33058,7 +33030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10">
       <c r="A540" t="s">
         <v>81</v>
       </c>
@@ -33090,7 +33062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10">
       <c r="A541" t="s">
         <v>105</v>
       </c>
@@ -33122,7 +33094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10">
       <c r="A542" t="s">
         <v>105</v>
       </c>
@@ -33154,7 +33126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10">
       <c r="A543" t="s">
         <v>57</v>
       </c>
@@ -33186,7 +33158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10">
       <c r="A544" t="s">
         <v>105</v>
       </c>
@@ -33218,7 +33190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10">
       <c r="A545" t="s">
         <v>106</v>
       </c>
@@ -33250,7 +33222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10">
       <c r="A546" t="s">
         <v>105</v>
       </c>
@@ -33282,7 +33254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10">
       <c r="A547" t="s">
         <v>107</v>
       </c>
@@ -33314,7 +33286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10">
       <c r="A548" t="s">
         <v>108</v>
       </c>
@@ -33346,7 +33318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10">
       <c r="A549" t="s">
         <v>105</v>
       </c>
@@ -33378,7 +33350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10">
       <c r="A550" t="s">
         <v>105</v>
       </c>
@@ -33410,7 +33382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10">
       <c r="A551" t="s">
         <v>105</v>
       </c>
@@ -33442,7 +33414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10">
       <c r="A552" t="s">
         <v>106</v>
       </c>
@@ -33474,7 +33446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10">
       <c r="A553" t="s">
         <v>105</v>
       </c>
@@ -33506,7 +33478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10">
       <c r="A554" t="s">
         <v>105</v>
       </c>
@@ -33538,7 +33510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10">
       <c r="A555" t="s">
         <v>106</v>
       </c>
@@ -33570,7 +33542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10">
       <c r="A556" t="s">
         <v>105</v>
       </c>
@@ -33602,7 +33574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10">
       <c r="A557" t="s">
         <v>107</v>
       </c>
@@ -33634,7 +33606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10">
       <c r="A558" t="s">
         <v>105</v>
       </c>
@@ -33666,7 +33638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:10">
       <c r="A559" t="s">
         <v>109</v>
       </c>
@@ -33698,7 +33670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:10">
       <c r="A560" t="s">
         <v>106</v>
       </c>
@@ -33730,7 +33702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:10">
       <c r="A561" t="s">
         <v>108</v>
       </c>
@@ -33762,7 +33734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:10">
       <c r="A562" t="s">
         <v>106</v>
       </c>
@@ -33794,7 +33766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:10">
       <c r="A563" t="s">
         <v>105</v>
       </c>
@@ -33826,7 +33798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:10">
       <c r="A564" t="s">
         <v>105</v>
       </c>
@@ -33858,7 +33830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:10">
       <c r="A565" t="s">
         <v>110</v>
       </c>
@@ -33890,7 +33862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:10">
       <c r="A566" t="s">
         <v>106</v>
       </c>
@@ -33922,7 +33894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:10">
       <c r="A567" t="s">
         <v>111</v>
       </c>
@@ -33954,7 +33926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:10">
       <c r="A568" t="s">
         <v>107</v>
       </c>
@@ -33986,7 +33958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:10">
       <c r="A569" t="s">
         <v>105</v>
       </c>
@@ -34018,7 +33990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:10">
       <c r="A570" t="s">
         <v>105</v>
       </c>
@@ -34050,7 +34022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:10">
       <c r="A571" t="s">
         <v>105</v>
       </c>
@@ -34082,7 +34054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:10">
       <c r="A572" t="s">
         <v>112</v>
       </c>
@@ -34114,7 +34086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:10">
       <c r="A573" t="s">
         <v>106</v>
       </c>
@@ -34146,7 +34118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:10">
       <c r="A574" t="s">
         <v>105</v>
       </c>
@@ -34178,7 +34150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:10">
       <c r="A575" t="s">
         <v>105</v>
       </c>
@@ -34210,7 +34182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:10">
       <c r="A576" t="s">
         <v>105</v>
       </c>
@@ -34242,7 +34214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:10">
       <c r="A577" t="s">
         <v>106</v>
       </c>
@@ -34274,7 +34246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:10">
       <c r="A578" t="s">
         <v>105</v>
       </c>
@@ -34306,7 +34278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:10">
       <c r="A579" t="s">
         <v>106</v>
       </c>
@@ -34338,7 +34310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:10">
       <c r="A580" t="s">
         <v>105</v>
       </c>
@@ -34370,7 +34342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:10">
       <c r="A581" t="s">
         <v>105</v>
       </c>
@@ -34402,7 +34374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:10">
       <c r="A582" t="s">
         <v>105</v>
       </c>
@@ -34434,7 +34406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:10">
       <c r="A583" t="s">
         <v>106</v>
       </c>
@@ -34466,7 +34438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:10">
       <c r="A584" t="s">
         <v>105</v>
       </c>
@@ -34498,7 +34470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:10">
       <c r="A585" t="s">
         <v>105</v>
       </c>
@@ -34530,7 +34502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:10">
       <c r="A586" t="s">
         <v>105</v>
       </c>
@@ -34562,7 +34534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:10">
       <c r="A587" t="s">
         <v>106</v>
       </c>
@@ -34594,7 +34566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:10">
       <c r="A588" t="s">
         <v>113</v>
       </c>
@@ -34626,7 +34598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:10">
       <c r="A589" t="s">
         <v>105</v>
       </c>
@@ -34658,7 +34630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:10">
       <c r="A590" t="s">
         <v>105</v>
       </c>
@@ -34690,7 +34662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:10">
       <c r="A591" t="s">
         <v>105</v>
       </c>
@@ -34722,7 +34694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:10">
       <c r="A592" t="s">
         <v>105</v>
       </c>
@@ -34754,7 +34726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:10">
       <c r="A593" t="s">
         <v>106</v>
       </c>
@@ -34786,7 +34758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:10">
       <c r="A594" t="s">
         <v>106</v>
       </c>
@@ -34818,7 +34790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:10">
       <c r="A595" t="s">
         <v>114</v>
       </c>
@@ -34850,7 +34822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:10">
       <c r="A596" t="s">
         <v>105</v>
       </c>
@@ -34882,7 +34854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:10">
       <c r="A597" t="s">
         <v>105</v>
       </c>
@@ -34914,7 +34886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:10">
       <c r="A598" t="s">
         <v>105</v>
       </c>
@@ -34946,7 +34918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:10">
       <c r="A599" t="s">
         <v>105</v>
       </c>
@@ -34978,7 +34950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:10">
       <c r="A600" t="s">
         <v>105</v>
       </c>
@@ -35010,7 +34982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:10">
       <c r="A601" t="s">
         <v>105</v>
       </c>
@@ -35042,7 +35014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:10">
       <c r="A602" t="s">
         <v>105</v>
       </c>
@@ -35074,7 +35046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:10">
       <c r="A603" t="s">
         <v>105</v>
       </c>
@@ -35106,7 +35078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:10">
       <c r="A604" t="s">
         <v>106</v>
       </c>
@@ -35138,7 +35110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:10">
       <c r="A605" t="s">
         <v>106</v>
       </c>
@@ -35170,7 +35142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:10">
       <c r="A606" t="s">
         <v>105</v>
       </c>
@@ -35202,7 +35174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:10">
       <c r="A607" t="s">
         <v>106</v>
       </c>
@@ -35234,7 +35206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:10">
       <c r="A608" t="s">
         <v>105</v>
       </c>
@@ -35266,7 +35238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:10">
       <c r="A609" t="s">
         <v>115</v>
       </c>
@@ -35298,7 +35270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:10">
       <c r="A610" t="s">
         <v>105</v>
       </c>
@@ -35330,7 +35302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:10">
       <c r="A611" t="s">
         <v>105</v>
       </c>
@@ -35362,7 +35334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10">
       <c r="A612" t="s">
         <v>105</v>
       </c>
@@ -35394,7 +35366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10">
       <c r="A613" t="s">
         <v>106</v>
       </c>
@@ -35426,7 +35398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:10">
       <c r="A614" t="s">
         <v>105</v>
       </c>
@@ -35458,7 +35430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:10">
       <c r="A615" t="s">
         <v>106</v>
       </c>
@@ -35490,7 +35462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:10">
       <c r="A616" t="s">
         <v>105</v>
       </c>
@@ -35522,7 +35494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:10">
       <c r="A617" t="s">
         <v>105</v>
       </c>
@@ -35554,7 +35526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:10">
       <c r="A618" t="s">
         <v>105</v>
       </c>
@@ -35586,7 +35558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:10">
       <c r="A619" t="s">
         <v>106</v>
       </c>
@@ -35618,7 +35590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:10">
       <c r="A620" t="s">
         <v>105</v>
       </c>
@@ -35650,7 +35622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:10">
       <c r="A621" t="s">
         <v>105</v>
       </c>
@@ -35682,7 +35654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:10">
       <c r="A622" t="s">
         <v>112</v>
       </c>
@@ -35714,7 +35686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:10">
       <c r="A623" t="s">
         <v>105</v>
       </c>
@@ -35746,7 +35718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:10">
       <c r="A624" t="s">
         <v>105</v>
       </c>
@@ -35778,7 +35750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10">
       <c r="A625" t="s">
         <v>105</v>
       </c>
@@ -35810,7 +35782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10">
       <c r="A626" t="s">
         <v>105</v>
       </c>
@@ -35842,7 +35814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10">
       <c r="A627" t="s">
         <v>106</v>
       </c>
@@ -35874,7 +35846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:10">
       <c r="A628" t="s">
         <v>105</v>
       </c>
@@ -35906,7 +35878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:10">
       <c r="A629" t="s">
         <v>105</v>
       </c>
@@ -35938,7 +35910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:10">
       <c r="A630" t="s">
         <v>106</v>
       </c>
@@ -35970,7 +35942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:10">
       <c r="A631" t="s">
         <v>105</v>
       </c>
@@ -36002,7 +35974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:10">
       <c r="A632" t="s">
         <v>105</v>
       </c>
@@ -36034,7 +36006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:10">
       <c r="A633" t="s">
         <v>70</v>
       </c>
@@ -36066,7 +36038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:10">
       <c r="A634" t="s">
         <v>105</v>
       </c>
@@ -36098,7 +36070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:10">
       <c r="A635" t="s">
         <v>105</v>
       </c>
@@ -36130,7 +36102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:10">
       <c r="A636" t="s">
         <v>105</v>
       </c>
@@ -36162,7 +36134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10">
       <c r="A637" t="s">
         <v>105</v>
       </c>
@@ -36194,7 +36166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10">
       <c r="A638" t="s">
         <v>106</v>
       </c>
@@ -36226,7 +36198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:10">
       <c r="A639" t="s">
         <v>105</v>
       </c>
@@ -36258,7 +36230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10">
       <c r="A640" t="s">
         <v>105</v>
       </c>
@@ -36290,7 +36262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:10">
       <c r="A641" t="s">
         <v>105</v>
       </c>
@@ -36322,7 +36294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:10">
       <c r="A642" t="s">
         <v>106</v>
       </c>
@@ -36354,7 +36326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:10">
       <c r="A643" t="s">
         <v>106</v>
       </c>
@@ -36386,7 +36358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:10">
       <c r="A644" t="s">
         <v>116</v>
       </c>
@@ -36418,7 +36390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:10">
       <c r="A645" t="s">
         <v>106</v>
       </c>
@@ -36450,7 +36422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:10">
       <c r="A646" t="s">
         <v>105</v>
       </c>
@@ -36482,7 +36454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:10">
       <c r="A647" t="s">
         <v>106</v>
       </c>
@@ -36514,7 +36486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:10">
       <c r="A648" t="s">
         <v>105</v>
       </c>
@@ -36546,7 +36518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:10">
       <c r="A649" t="s">
         <v>105</v>
       </c>
@@ -36578,7 +36550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:10">
       <c r="A650" t="s">
         <v>106</v>
       </c>
@@ -36610,7 +36582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:10">
       <c r="A651" t="s">
         <v>105</v>
       </c>
@@ -36642,7 +36614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:10">
       <c r="A652" t="s">
         <v>105</v>
       </c>
@@ -36674,7 +36646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:10">
       <c r="A653" t="s">
         <v>105</v>
       </c>
@@ -36706,7 +36678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:10">
       <c r="A654" t="s">
         <v>106</v>
       </c>
@@ -36738,7 +36710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:10">
       <c r="A655" t="s">
         <v>106</v>
       </c>
@@ -36770,7 +36742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:10">
       <c r="A656" t="s">
         <v>70</v>
       </c>
@@ -36802,7 +36774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:10">
       <c r="A657" t="s">
         <v>81</v>
       </c>
@@ -36834,7 +36806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:10">
       <c r="A658" t="s">
         <v>117</v>
       </c>
@@ -36866,7 +36838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:10">
       <c r="A659" t="s">
         <v>105</v>
       </c>
@@ -36898,7 +36870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:10">
       <c r="A660" t="s">
         <v>105</v>
       </c>
@@ -36930,7 +36902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:10">
       <c r="A661" t="s">
         <v>106</v>
       </c>
@@ -36962,7 +36934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:10">
       <c r="A662" t="s">
         <v>105</v>
       </c>
@@ -36994,7 +36966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:10">
       <c r="A663" t="s">
         <v>105</v>
       </c>
@@ -37026,7 +36998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:10">
       <c r="A664" t="s">
         <v>106</v>
       </c>
@@ -37058,7 +37030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:10">
       <c r="A665" t="s">
         <v>105</v>
       </c>
@@ -37090,7 +37062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:10">
       <c r="A666" t="s">
         <v>105</v>
       </c>
@@ -37122,7 +37094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:10">
       <c r="A667" t="s">
         <v>106</v>
       </c>
@@ -37154,7 +37126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:10">
       <c r="A668" t="s">
         <v>105</v>
       </c>
@@ -37186,7 +37158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:10">
       <c r="A669" t="s">
         <v>105</v>
       </c>
@@ -37218,7 +37190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:10">
       <c r="A670" t="s">
         <v>106</v>
       </c>
@@ -37250,7 +37222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:10">
       <c r="A671" t="s">
         <v>105</v>
       </c>
@@ -37282,7 +37254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:10">
       <c r="A672" t="s">
         <v>105</v>
       </c>
@@ -37314,7 +37286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:10">
       <c r="A673" t="s">
         <v>105</v>
       </c>
@@ -37346,7 +37318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:10">
       <c r="A674" t="s">
         <v>105</v>
       </c>
@@ -37378,7 +37350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10">
       <c r="A675" t="s">
         <v>105</v>
       </c>
@@ -37410,7 +37382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10">
       <c r="A676" t="s">
         <v>106</v>
       </c>
@@ -37442,7 +37414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10">
       <c r="A677" t="s">
         <v>105</v>
       </c>
@@ -37474,7 +37446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10">
       <c r="A678" t="s">
         <v>118</v>
       </c>
@@ -37506,7 +37478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:10">
       <c r="A679" t="s">
         <v>105</v>
       </c>
@@ -37538,7 +37510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:10">
       <c r="A680" t="s">
         <v>105</v>
       </c>
@@ -37570,7 +37542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:10">
       <c r="A681" t="s">
         <v>106</v>
       </c>
@@ -37602,7 +37574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:10">
       <c r="A682" t="s">
         <v>105</v>
       </c>
@@ -37634,7 +37606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:10">
       <c r="A683" t="s">
         <v>105</v>
       </c>
@@ -37666,7 +37638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:10">
       <c r="A684" t="s">
         <v>106</v>
       </c>
@@ -37698,7 +37670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:10">
       <c r="A685" t="s">
         <v>105</v>
       </c>
@@ -37730,7 +37702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:10">
       <c r="A686" t="s">
         <v>107</v>
       </c>
@@ -37762,7 +37734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:10">
       <c r="A687" t="s">
         <v>119</v>
       </c>
@@ -37794,7 +37766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:10">
       <c r="A688" t="s">
         <v>106</v>
       </c>
@@ -37826,7 +37798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:10">
       <c r="A689" t="s">
         <v>105</v>
       </c>
@@ -37858,7 +37830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:10">
       <c r="A690" t="s">
         <v>105</v>
       </c>
@@ -37890,7 +37862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:10">
       <c r="A691" t="s">
         <v>106</v>
       </c>
@@ -37922,7 +37894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10">
       <c r="A692" t="s">
         <v>105</v>
       </c>
@@ -37954,7 +37926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10">
       <c r="A693" t="s">
         <v>107</v>
       </c>
@@ -37986,7 +37958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:10">
       <c r="A694" t="s">
         <v>119</v>
       </c>
@@ -38018,7 +37990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:10">
       <c r="A695" t="s">
         <v>105</v>
       </c>
@@ -38050,7 +38022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:10">
       <c r="A696" t="s">
         <v>106</v>
       </c>
@@ -38082,7 +38054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:10">
       <c r="A697" t="s">
         <v>107</v>
       </c>
@@ -38114,7 +38086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:10">
       <c r="A698" t="s">
         <v>108</v>
       </c>
@@ -38146,7 +38118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:10">
       <c r="A699" t="s">
         <v>111</v>
       </c>
@@ -38178,7 +38150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:10">
       <c r="A700" t="s">
         <v>105</v>
       </c>
@@ -38210,7 +38182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:10">
       <c r="A701" t="s">
         <v>106</v>
       </c>
@@ -38242,7 +38214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:10">
       <c r="A702" t="s">
         <v>105</v>
       </c>
@@ -38274,7 +38246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:10">
       <c r="A703" t="s">
         <v>105</v>
       </c>
@@ -38306,7 +38278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:10">
       <c r="A704" t="s">
         <v>106</v>
       </c>
@@ -38338,7 +38310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:10">
       <c r="A705" t="s">
         <v>105</v>
       </c>
@@ -38370,7 +38342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:10">
       <c r="A706" t="s">
         <v>105</v>
       </c>
@@ -38402,7 +38374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:10">
       <c r="A707" t="s">
         <v>106</v>
       </c>
@@ -38434,7 +38406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:10">
       <c r="A708" t="s">
         <v>106</v>
       </c>
@@ -38466,7 +38438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:10">
       <c r="A709" t="s">
         <v>105</v>
       </c>
@@ -38498,7 +38470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:10">
       <c r="A710" t="s">
         <v>105</v>
       </c>
@@ -38530,7 +38502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:10">
       <c r="A711" t="s">
         <v>106</v>
       </c>
@@ -38562,7 +38534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:10">
       <c r="A712" t="s">
         <v>37</v>
       </c>
@@ -38594,7 +38566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:10">
       <c r="A713" t="s">
         <v>105</v>
       </c>
@@ -38626,7 +38598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:10">
       <c r="A714" t="s">
         <v>105</v>
       </c>
@@ -38658,7 +38630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:10">
       <c r="A715" t="s">
         <v>105</v>
       </c>
@@ -38690,7 +38662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:10">
       <c r="A716" t="s">
         <v>105</v>
       </c>
@@ -38722,7 +38694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:10">
       <c r="A717" t="s">
         <v>105</v>
       </c>
@@ -38754,7 +38726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:10">
       <c r="A718" t="s">
         <v>106</v>
       </c>
@@ -38786,7 +38758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:10">
       <c r="A719" t="s">
         <v>105</v>
       </c>
@@ -38818,7 +38790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:10">
       <c r="A720" t="s">
         <v>105</v>
       </c>
@@ -38850,7 +38822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:10">
       <c r="A721" t="s">
         <v>106</v>
       </c>
@@ -38882,7 +38854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:10">
       <c r="A722" t="s">
         <v>105</v>
       </c>
@@ -38914,7 +38886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:10">
       <c r="A723" t="s">
         <v>116</v>
       </c>
@@ -38946,7 +38918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:10">
       <c r="A724" t="s">
         <v>105</v>
       </c>
@@ -38978,7 +38950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:10">
       <c r="A725" t="s">
         <v>106</v>
       </c>
@@ -39010,7 +38982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:10">
       <c r="A726" t="s">
         <v>105</v>
       </c>
@@ -39042,7 +39014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:10">
       <c r="A727" t="s">
         <v>106</v>
       </c>
@@ -39074,7 +39046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:10">
       <c r="A728" t="s">
         <v>105</v>
       </c>
@@ -39106,7 +39078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:10">
       <c r="A729" t="s">
         <v>106</v>
       </c>
@@ -39138,7 +39110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:10">
       <c r="A730" t="s">
         <v>105</v>
       </c>
@@ -39170,7 +39142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:10">
       <c r="A731" t="s">
         <v>120</v>
       </c>
@@ -39202,7 +39174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:10">
       <c r="A732" t="s">
         <v>105</v>
       </c>
@@ -39234,7 +39206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:10">
       <c r="A733" t="s">
         <v>105</v>
       </c>
@@ -39266,7 +39238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:10">
       <c r="A734" t="s">
         <v>105</v>
       </c>
@@ -39298,7 +39270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:10">
       <c r="A735" t="s">
         <v>105</v>
       </c>
@@ -39330,7 +39302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:10">
       <c r="A736" t="s">
         <v>105</v>
       </c>
@@ -39362,7 +39334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:10">
       <c r="A737" t="s">
         <v>105</v>
       </c>
